--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43033,6 +43033,41 @@
         <v>91400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>30200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43068,6 +43068,41 @@
         <v>30200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>35700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43103,6 +43103,41 @@
         <v>35700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>78000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43138,6 +43138,41 @@
         <v>78000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>379700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43173,6 +43173,41 @@
         <v>379700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>55300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43208,6 +43208,41 @@
         <v>55300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>99200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43243,6 +43243,41 @@
         <v>99200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>36800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43278,6 +43278,41 @@
         <v>36800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43313,6 +43313,41 @@
         <v>5400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>18800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43348,6 +43348,41 @@
         <v>18800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>120300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43383,6 +43383,41 @@
         <v>120300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>235500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43418,6 +43418,41 @@
         <v>235500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43453,6 +43453,76 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>50300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>70300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43523,6 +43523,76 @@
         <v>70300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>136400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>153900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43593,6 +43593,41 @@
         <v>153900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>353500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43628,6 +43628,41 @@
         <v>353500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>19400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43663,6 +43663,41 @@
         <v>19400</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>109900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43698,6 +43698,41 @@
         <v>109900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>203000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43733,6 +43733,76 @@
         <v>203000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>425900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>32400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43803,6 +43803,41 @@
         <v>32400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>302400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43838,6 +43838,41 @@
         <v>302400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>705600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1906"/>
+  <dimension ref="A1:I1907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67148,6 +67148,41 @@
         <v>705600</v>
       </c>
     </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H1907" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I1907" t="n">
+        <v>1013100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1907"/>
+  <dimension ref="A1:I1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67183,6 +67183,41 @@
         <v>1013100</v>
       </c>
     </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I1908" t="n">
+        <v>2502800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1908"/>
+  <dimension ref="A1:I1909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67218,6 +67218,41 @@
         <v>2502800</v>
       </c>
     </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H1909" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I1909" t="n">
+        <v>2006300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1909"/>
+  <dimension ref="A1:I1910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67253,6 +67253,41 @@
         <v>2006300</v>
       </c>
     </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H1910" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I1910" t="n">
+        <v>269100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1910"/>
+  <dimension ref="A1:I1911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67288,6 +67288,41 @@
         <v>269100</v>
       </c>
     </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1911" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G1911" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H1911" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I1911" t="n">
+        <v>46200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1911"/>
+  <dimension ref="A1:I1912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67323,6 +67323,41 @@
         <v>46200</v>
       </c>
     </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1912" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G1912" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H1912" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I1912" t="n">
+        <v>207400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1912"/>
+  <dimension ref="A1:I1913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67358,6 +67358,41 @@
         <v>207400</v>
       </c>
     </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1913" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G1913" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H1913" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I1913" t="n">
+        <v>93400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1913"/>
+  <dimension ref="A1:I1914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67393,6 +67393,41 @@
         <v>93400</v>
       </c>
     </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1914" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G1914" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1914" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I1914" t="n">
+        <v>176600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1914"/>
+  <dimension ref="A1:I1915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67428,6 +67428,41 @@
         <v>176600</v>
       </c>
     </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1915" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G1915" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H1915" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I1915" t="n">
+        <v>5300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1915"/>
+  <dimension ref="A1:I1916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67463,6 +67463,41 @@
         <v>5300</v>
       </c>
     </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1916" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="G1916" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H1916" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I1916" t="n">
+        <v>35200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1916"/>
+  <dimension ref="A1:I1917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67498,6 +67498,41 @@
         <v>35200</v>
       </c>
     </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1917" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1917" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H1917" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I1917" t="n">
+        <v>21500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1917"/>
+  <dimension ref="A1:I1918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67533,6 +67533,41 @@
         <v>21500</v>
       </c>
     </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1918" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1918" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H1918" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I1918" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1918"/>
+  <dimension ref="A1:I1919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67568,6 +67568,41 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1919" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G1919" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H1919" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I1919" t="n">
+        <v>48500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1919"/>
+  <dimension ref="A1:I1920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67603,6 +67603,41 @@
         <v>48500</v>
       </c>
     </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1920" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1920" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H1920" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I1920" t="n">
+        <v>18200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1920"/>
+  <dimension ref="A1:I1921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67638,6 +67638,41 @@
         <v>18200</v>
       </c>
     </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1921" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1921" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H1921" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I1921" t="n">
+        <v>29300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1921"/>
+  <dimension ref="A1:I1922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67673,6 +67673,41 @@
         <v>29300</v>
       </c>
     </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1922" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1922" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H1922" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I1922" t="n">
+        <v>110500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1922"/>
+  <dimension ref="A1:I1923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67708,6 +67708,41 @@
         <v>110500</v>
       </c>
     </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1923" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G1923" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H1923" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I1923" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1923"/>
+  <dimension ref="A1:I1924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67743,6 +67743,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1924" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G1924" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H1924" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I1924" t="n">
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1924"/>
+  <dimension ref="A1:I1925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67778,6 +67778,41 @@
         <v>48000</v>
       </c>
     </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1925" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G1925" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1925" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I1925" t="n">
+        <v>11700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1925"/>
+  <dimension ref="A1:I1926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67813,6 +67813,41 @@
         <v>11700</v>
       </c>
     </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1926" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G1926" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1926" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I1926" t="n">
+        <v>6400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1926"/>
+  <dimension ref="A1:I1927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67848,6 +67848,41 @@
         <v>6400</v>
       </c>
     </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1927" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G1927" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H1927" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I1927" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1927"/>
+  <dimension ref="A1:I1928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67883,6 +67883,41 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1928" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G1928" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1928" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I1928" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1928"/>
+  <dimension ref="A1:I1929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67918,6 +67918,41 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1929" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G1929" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H1929" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I1929" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1929"/>
+  <dimension ref="A1:I1930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67953,6 +67953,41 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1930" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1930" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H1930" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="I1930" t="n">
+        <v>56600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1930"/>
+  <dimension ref="A1:I1931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67988,6 +67988,41 @@
         <v>56600</v>
       </c>
     </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1931" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1931" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H1931" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I1931" t="n">
+        <v>151200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1931"/>
+  <dimension ref="A1:I1933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68023,6 +68023,76 @@
         <v>151200</v>
       </c>
     </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1932" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G1932" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H1932" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I1932" t="n">
+        <v>345800</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1933" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G1933" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H1933" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I1933" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1933"/>
+  <dimension ref="A1:I1934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68093,6 +68093,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1934" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G1934" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H1934" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I1934" t="n">
+        <v>88500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1934"/>
+  <dimension ref="A1:I1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68128,6 +68128,111 @@
         <v>88500</v>
       </c>
     </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1935" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1935" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H1935" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1935" t="n">
+        <v>671100</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1936" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1936" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H1936" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I1936" t="n">
+        <v>302200</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H1937" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I1937" t="n">
+        <v>30700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1937"/>
+  <dimension ref="A1:I1938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68233,6 +68233,41 @@
         <v>30700</v>
       </c>
     </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1938" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1938" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H1938" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I1938" t="n">
+        <v>338000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1938"/>
+  <dimension ref="A1:I1939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68268,6 +68268,41 @@
         <v>338000</v>
       </c>
     </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1939" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1939" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H1939" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1939" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5209.xlsx
+++ b/data/5209.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1939"/>
+  <dimension ref="A1:I1942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68303,6 +68303,111 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H1940" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I1940" t="n">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1941" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1941" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>GASMSIA</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H1942" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I1942" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
